--- a/Data_collected.xlsx
+++ b/Data_collected.xlsx
@@ -111,10 +111,10 @@
     <t>annee</t>
   </si>
   <si>
-    <t>Chèque rejeté selon MC</t>
+    <t>Rejeté selon MC</t>
   </si>
   <si>
-    <t>Chèque validé selon MC</t>
+    <t>Validé selon MC</t>
   </si>
   <si>
     <t xml:space="preserve">Akamba Essono Leonella                            </t>
@@ -699,13 +699,13 @@
     <t>Pose d'un DIU</t>
   </si>
   <si>
-    <t>Chèque validé BON A PAYER selon le CM</t>
+    <t>Validé BON A PAYER selon le CM</t>
   </si>
   <si>
-    <t>Chèque Rejet TOTAL selon le CM</t>
+    <t>Rejet TOTAL selon le CM</t>
   </si>
   <si>
-    <t>Chèque Rejet PARTIEL selon le CM</t>
+    <t>Rejet PARTIEL selon le CM</t>
   </si>
   <si>
     <t>Pour paiement</t>

--- a/Data_collected.xlsx
+++ b/Data_collected.xlsx
@@ -633,13 +633,13 @@
     <t xml:space="preserve">OBOUNOU PRUDENCE                                  </t>
   </si>
   <si>
-    <t>Prestations forfaitaires</t>
+    <t>Forfaitaires</t>
   </si>
   <si>
-    <t>Prestations non médicales</t>
+    <t>Non médicales</t>
   </si>
   <si>
-    <t>Prestations plafonnées SONUB</t>
+    <t>Plafonnées SONUB</t>
   </si>
   <si>
     <t>CPN1</t>
@@ -858,7 +858,7 @@
     <t>MONTANT TOTAL DE FACTURE  VALIDE MC</t>
   </si>
   <si>
-    <t>Prestations plafonnées SONUC</t>
+    <t>Plafonnées SONUC</t>
   </si>
   <si>
     <t>INN</t>

--- a/Data_collected.xlsx
+++ b/Data_collected.xlsx
@@ -633,13 +633,13 @@
     <t xml:space="preserve">OBOUNOU PRUDENCE                                  </t>
   </si>
   <si>
-    <t>Forfaitaires</t>
+    <t>Prestations forfaitaires</t>
   </si>
   <si>
-    <t>Non médicales</t>
+    <t>Prestations non médicales</t>
   </si>
   <si>
-    <t>Plafonnées SONUB</t>
+    <t>Prestations plafonnées SONUB</t>
   </si>
   <si>
     <t>CPN1</t>
@@ -858,7 +858,7 @@
     <t>MONTANT TOTAL DE FACTURE  VALIDE MC</t>
   </si>
   <si>
-    <t>Plafonnées SONUC</t>
+    <t>Prestations plafonnées SONUC</t>
   </si>
   <si>
     <t>INN</t>
